--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220430_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220430_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="264">
   <si>
     <t>사이트</t>
   </si>
@@ -1344,6 +1344,12 @@
       <c r="F7" t="s">
         <v>177</v>
       </c>
+      <c r="G7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -2273,6 +2279,12 @@
       </c>
       <c r="F43" t="s">
         <v>194</v>
+      </c>
+      <c r="G43" t="s">
+        <v>232</v>
+      </c>
+      <c r="H43" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:8">

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220430_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220430_110605.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-04-30</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220430_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220430_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="264">
   <si>
     <t>사이트</t>
   </si>
@@ -1163,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3517,22 +3517,22 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F91" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="H91" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3543,19 +3543,19 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="G92" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H92" t="s">
         <v>255</v>
@@ -3569,22 +3569,22 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="F93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G93" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H93" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3595,22 +3595,22 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G94" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="H94" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3621,22 +3621,22 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E95" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G95" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H95" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3647,22 +3647,22 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E96" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F96" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G96" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="H96" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3673,22 +3673,22 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G97" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="H97" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3699,22 +3699,22 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="F98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G98" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="H98" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3725,22 +3725,22 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="F99" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="H99" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3751,19 +3751,19 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F100" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="G100" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H100" t="s">
         <v>255</v>
@@ -3777,47 +3777,21 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="F101" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="H101" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>131</v>
-      </c>
-      <c r="F102" t="s">
-        <v>109</v>
-      </c>
-      <c r="G102" t="s">
-        <v>234</v>
-      </c>
-      <c r="H102" t="s">
         <v>255</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220430_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220430_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="263">
   <si>
     <t>사이트</t>
   </si>
@@ -754,7 +754,7 @@
     <t>N.A.P</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>빅히트</t>
@@ -779,9 +779,6 @@
   </si>
   <si>
     <t>NEXTAR</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>매직스트로베리 사운드</t>
@@ -1270,7 +1267,7 @@
         <v>229</v>
       </c>
       <c r="H4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1322,7 +1319,7 @@
         <v>231</v>
       </c>
       <c r="H6" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1348,7 +1345,7 @@
         <v>232</v>
       </c>
       <c r="H7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1400,7 +1397,7 @@
         <v>232</v>
       </c>
       <c r="H9" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1452,7 +1449,7 @@
         <v>233</v>
       </c>
       <c r="H11" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1478,7 +1475,7 @@
         <v>234</v>
       </c>
       <c r="H12" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1504,7 +1501,7 @@
         <v>235</v>
       </c>
       <c r="H13" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1530,7 +1527,7 @@
         <v>236</v>
       </c>
       <c r="H14" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1556,7 +1553,7 @@
         <v>237</v>
       </c>
       <c r="H15" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1582,7 +1579,7 @@
         <v>238</v>
       </c>
       <c r="H16" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1608,7 +1605,7 @@
         <v>239</v>
       </c>
       <c r="H17" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1634,7 +1631,7 @@
         <v>240</v>
       </c>
       <c r="H18" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1660,7 +1657,7 @@
         <v>241</v>
       </c>
       <c r="H19" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1686,7 +1683,7 @@
         <v>239</v>
       </c>
       <c r="H20" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1712,7 +1709,7 @@
         <v>242</v>
       </c>
       <c r="H21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1764,7 +1761,7 @@
         <v>243</v>
       </c>
       <c r="H23" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1842,7 +1839,7 @@
         <v>229</v>
       </c>
       <c r="H26" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1868,7 +1865,7 @@
         <v>234</v>
       </c>
       <c r="H27" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1894,7 +1891,7 @@
         <v>245</v>
       </c>
       <c r="H28" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1920,7 +1917,7 @@
         <v>239</v>
       </c>
       <c r="H29" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1946,7 +1943,7 @@
         <v>246</v>
       </c>
       <c r="H30" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1998,7 +1995,7 @@
         <v>233</v>
       </c>
       <c r="H32" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2076,7 +2073,7 @@
         <v>248</v>
       </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2102,7 +2099,7 @@
         <v>234</v>
       </c>
       <c r="H36" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2128,7 +2125,7 @@
         <v>249</v>
       </c>
       <c r="H37" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2154,7 +2151,7 @@
         <v>246</v>
       </c>
       <c r="H38" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2232,7 +2229,7 @@
         <v>250</v>
       </c>
       <c r="H41" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2258,7 +2255,7 @@
         <v>241</v>
       </c>
       <c r="H42" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2284,7 +2281,7 @@
         <v>232</v>
       </c>
       <c r="H43" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2310,7 +2307,7 @@
         <v>251</v>
       </c>
       <c r="H44" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2336,7 +2333,7 @@
         <v>234</v>
       </c>
       <c r="H45" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2440,7 +2437,7 @@
         <v>239</v>
       </c>
       <c r="H49" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2466,7 +2463,7 @@
         <v>234</v>
       </c>
       <c r="H50" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2492,7 +2489,7 @@
         <v>246</v>
       </c>
       <c r="H51" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2518,7 +2515,7 @@
         <v>239</v>
       </c>
       <c r="H52" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2544,7 +2541,7 @@
         <v>252</v>
       </c>
       <c r="H53" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2570,7 +2567,7 @@
         <v>239</v>
       </c>
       <c r="H54" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2596,7 +2593,7 @@
         <v>246</v>
       </c>
       <c r="H55" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2622,7 +2619,7 @@
         <v>248</v>
       </c>
       <c r="H56" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2726,7 +2723,7 @@
         <v>237</v>
       </c>
       <c r="H60" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2752,7 +2749,7 @@
         <v>234</v>
       </c>
       <c r="H61" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2778,7 +2775,7 @@
         <v>240</v>
       </c>
       <c r="H62" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2830,7 +2827,7 @@
         <v>254</v>
       </c>
       <c r="H64" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2856,7 +2853,7 @@
         <v>240</v>
       </c>
       <c r="H65" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2882,7 +2879,7 @@
         <v>246</v>
       </c>
       <c r="H66" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2908,7 +2905,7 @@
         <v>234</v>
       </c>
       <c r="H67" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2934,7 +2931,7 @@
         <v>234</v>
       </c>
       <c r="H68" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2960,7 +2957,7 @@
         <v>239</v>
       </c>
       <c r="H69" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2986,7 +2983,7 @@
         <v>246</v>
       </c>
       <c r="H70" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3061,10 +3058,10 @@
         <v>156</v>
       </c>
       <c r="G73" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="H73" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3090,7 +3087,7 @@
         <v>229</v>
       </c>
       <c r="H74" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3116,7 +3113,7 @@
         <v>246</v>
       </c>
       <c r="H75" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3139,10 +3136,10 @@
         <v>208</v>
       </c>
       <c r="G76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H76" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3165,10 +3162,10 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H77" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3194,7 +3191,7 @@
         <v>239</v>
       </c>
       <c r="H78" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3220,7 +3217,7 @@
         <v>239</v>
       </c>
       <c r="H79" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3246,7 +3243,7 @@
         <v>249</v>
       </c>
       <c r="H80" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3298,7 +3295,7 @@
         <v>234</v>
       </c>
       <c r="H82" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3324,7 +3321,7 @@
         <v>241</v>
       </c>
       <c r="H83" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3347,10 +3344,10 @@
         <v>213</v>
       </c>
       <c r="G84" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H84" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3402,7 +3399,7 @@
         <v>252</v>
       </c>
       <c r="H86" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3428,7 +3425,7 @@
         <v>243</v>
       </c>
       <c r="H87" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3451,10 +3448,10 @@
         <v>217</v>
       </c>
       <c r="G88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H88" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3477,10 +3474,10 @@
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H89" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3506,7 +3503,7 @@
         <v>233</v>
       </c>
       <c r="H90" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3529,10 +3526,10 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H91" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3558,7 +3555,7 @@
         <v>242</v>
       </c>
       <c r="H92" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3607,10 +3604,10 @@
         <v>221</v>
       </c>
       <c r="G94" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="H94" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3685,10 +3682,10 @@
         <v>224</v>
       </c>
       <c r="G97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3737,10 +3734,10 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H99" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3763,10 +3760,10 @@
         <v>226</v>
       </c>
       <c r="G100" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H100" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3792,7 +3789,7 @@
         <v>234</v>
       </c>
       <c r="H101" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
